--- a/exercicio-proposto-operacoes-aritmeticas.xlsx
+++ b/exercicio-proposto-operacoes-aritmeticas.xlsx
@@ -1,24 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\02 Primeiros passos sobre planilha eletrônica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\wokspaces\start\ExcelAvançado\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8750843-FED4-40CD-8681-BDD5FA926753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercício Operações Aritméticas" sheetId="3" r:id="rId1"/>
     <sheet name="Gabarito" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -109,15 +121,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.000"/>
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;R$&quot;* #,##0.0000_-;\-&quot;R$&quot;* #,##0.0000_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.000"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="_-&quot;R$&quot;* #,##0.0000_-;\-&quot;R$&quot;* #,##0.0000_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +189,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -314,10 +334,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -355,13 +376,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -370,21 +391,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -418,11 +442,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -734,31 +759,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="10" width="15.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" customWidth="1"/>
-    <col min="12" max="13" width="11.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.7265625" style="1" customWidth="1"/>
+    <col min="3" max="10" width="15.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="11.7265625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="14" t="s">
         <v>22</v>
       </c>
@@ -769,13 +796,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="15">
         <v>4.899</v>
       </c>
@@ -786,7 +813,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="26" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
@@ -817,7 +844,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
@@ -827,18 +854,30 @@
       <c r="D5" s="5">
         <v>142.19999999999999</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="20">
+        <f>D5*$H$3</f>
+        <v>696.63779999999997</v>
+      </c>
       <c r="F5" s="20">
         <v>500</v>
       </c>
       <c r="G5" s="20">
         <v>350</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H5" s="20">
+        <f>E5+F5+G5</f>
+        <v>1546.6378</v>
+      </c>
+      <c r="I5" s="20">
+        <f>H5/C5</f>
+        <v>1.1456576296296297</v>
+      </c>
+      <c r="J5" s="5">
+        <f>C5/D5</f>
+        <v>9.4936708860759502</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
@@ -848,18 +887,30 @@
       <c r="D6" s="5">
         <v>224.2</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="20">
+        <f t="shared" ref="E6:E8" si="0">D6*$H$3</f>
+        <v>1098.3558</v>
+      </c>
       <c r="F6" s="20">
         <v>250</v>
       </c>
       <c r="G6" s="20">
         <v>35</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H6" s="20">
+        <f>SUM(E6:G6)</f>
+        <v>1383.3558</v>
+      </c>
+      <c r="I6" s="20">
+        <f t="shared" ref="I6:I8" si="1">H6/C6</f>
+        <v>0.7094132307692308</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" ref="J6:J8" si="2">C6/D6</f>
+        <v>8.6975914362176638</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
@@ -869,18 +920,30 @@
       <c r="D7" s="5">
         <v>247</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="20">
+        <f t="shared" si="0"/>
+        <v>1210.0530000000001</v>
+      </c>
       <c r="F7" s="20">
         <v>180</v>
       </c>
       <c r="G7" s="20">
         <v>56</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H7" s="20">
+        <f t="shared" ref="H7:H8" si="3">SUM(E7:G7)</f>
+        <v>1446.0530000000001</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.57383055555555562</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="2"/>
+        <v>10.20242914979757</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -890,49 +953,85 @@
       <c r="D8" s="5">
         <v>117.5</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="20">
+        <f t="shared" si="0"/>
+        <v>575.63250000000005</v>
+      </c>
       <c r="F8" s="20">
         <v>95</v>
       </c>
       <c r="G8" s="20">
         <v>0</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="20">
+        <f t="shared" si="3"/>
+        <v>670.63250000000005</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.47562588652482274</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="12" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="C9" s="8">
+        <f>SUM(C5:C8)</f>
+        <v>7230</v>
+      </c>
+      <c r="D9" s="35">
+        <f t="shared" ref="D9:J9" si="4">SUM(D5:D8)</f>
+        <v>730.9</v>
+      </c>
+      <c r="E9" s="35">
+        <f t="shared" si="4"/>
+        <v>3580.6791000000003</v>
+      </c>
+      <c r="F9" s="35">
+        <f t="shared" si="4"/>
+        <v>1025</v>
+      </c>
+      <c r="G9" s="35">
+        <f t="shared" si="4"/>
+        <v>441</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="4"/>
+        <v>5046.6790999999994</v>
+      </c>
+      <c r="I9" s="35">
+        <f>H9/C9</f>
+        <v>0.69801923928077447</v>
+      </c>
+      <c r="J9" s="35">
+        <f>C9/D9</f>
+        <v>9.8919140785333148</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="18">
         <v>0.57999999999999996</v>
       </c>
       <c r="E13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="26" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
         <v>0</v>
       </c>
@@ -945,57 +1044,72 @@
       <c r="E14" s="9"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="21">
         <v>0.59599999999999997</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="12">
+        <f>(C15/$D$13)-1</f>
+        <v>2.7586206896551779E-2</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="21">
         <v>0.58199999999999996</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="12">
+        <f t="shared" ref="D16:D19" si="5">(C16/$D$13)-1</f>
+        <v>3.4482758620688614E-3</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="21">
         <v>0.57199999999999995</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="12">
+        <f t="shared" si="5"/>
+        <v>-1.379310344827589E-2</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="21">
         <v>0.61199999999999999</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="12">
+        <f t="shared" si="5"/>
+        <v>5.5172413793103559E-2</v>
+      </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="21">
         <v>0.64549999999999996</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="12">
+        <f t="shared" si="5"/>
+        <v>0.11293103448275854</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1004,35 +1118,40 @@
     <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError sqref="I9" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="10" width="15.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" customWidth="1"/>
-    <col min="12" max="13" width="11.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.7265625" style="1" customWidth="1"/>
+    <col min="3" max="10" width="15.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="11.7265625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="32"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="14" t="s">
         <v>22</v>
       </c>
@@ -1043,13 +1162,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="33"/>
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="15">
         <v>4.899</v>
       </c>
@@ -1060,7 +1179,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="26" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
@@ -1091,7 +1210,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1124,7 +1243,7 @@
         <v>9.4936708860759502</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1157,7 +1276,7 @@
         <v>8.6975914362176638</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1190,7 +1309,7 @@
         <v>10.20242914979757</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1223,7 +1342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1231,7 +1350,7 @@
         <f>SUM(C5:C8)</f>
         <v>7230</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="23">
         <f t="shared" ref="D9:H9" si="1">SUM(D5:D8)</f>
         <v>730.9</v>
       </c>
@@ -1260,25 +1379,25 @@
         <v>9.8919140785333148</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+    <row r="12" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="18">
         <v>0.57999999999999996</v>
       </c>
       <c r="E13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="26" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1410,7 @@
       <c r="E14" s="9"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1305,7 +1424,7 @@
       <c r="E15" s="9"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1319,7 +1438,7 @@
       <c r="E16" s="9"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1333,7 +1452,7 @@
       <c r="E17" s="9"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1346,7 +1465,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
